--- a/data/income_statement/2digits/size/27_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/27_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>27-Manufacture of electrical equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>27-Manufacture of electrical equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3295393.84779</v>
+        <v>3447398.65622</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4274754.871499999</v>
+        <v>4333268.44993</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4955377.5147</v>
+        <v>5109207.809640001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5436295.803490001</v>
+        <v>5677171.68679</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7030202.718969999</v>
+        <v>7281506.39367</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7324333.81401</v>
+        <v>7623828.33957</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7978173.90889</v>
+        <v>8488709.70097</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8538635.85681</v>
+        <v>9200599.41667</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10676380.26435</v>
+        <v>11313848.22123</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>16428875.56305</v>
+        <v>16939585.89989</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>17506428.02005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17893606.17777</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>21807576.855</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2388128.124890001</v>
+        <v>2515805.92388</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3273386.87153</v>
+        <v>3298181.87203</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3831913.45183</v>
+        <v>3967307.392899999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4345285.76571</v>
+        <v>4548418.86037</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5500606.859399999</v>
+        <v>5628159.74238</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5825004.142599999</v>
+        <v>5948122.371470001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6455125.87667</v>
+        <v>6855027.78947</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6762760.48734</v>
+        <v>7270520.92521</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8607573.309629999</v>
+        <v>9091131.136530001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11768548.80885</v>
+        <v>12057849.58861</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>12874064.25222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12971233.97746</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>16182860.111</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>875649.8245600001</v>
+        <v>897320.4734700001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>963204.8382700001</v>
+        <v>996476.9758899999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1072729.04369</v>
+        <v>1089796.41665</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1031072.99596</v>
+        <v>1066889.49836</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1466456.52347</v>
+        <v>1592999.56519</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1428171.05936</v>
+        <v>1591155.0465</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1432725.21742</v>
+        <v>1538870.22943</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1660666.30746</v>
+        <v>1806465.22307</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1939327.38528</v>
+        <v>2083993.83114</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4456082.79108</v>
+        <v>4671464.284639999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4295485.070069999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4552165.87953</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5292616.58</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>31615.89834</v>
+        <v>34272.25887000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>38163.1617</v>
+        <v>38609.60201</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>50735.01918</v>
+        <v>52104.00009</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>59937.04181999999</v>
+        <v>61863.32805999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>63139.33610000001</v>
+        <v>60347.08609999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>71158.61205</v>
+        <v>84550.92159999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>90322.81479999999</v>
+        <v>94811.68207</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>115209.06201</v>
+        <v>123613.26839</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>129479.56944</v>
+        <v>138723.25356</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>204243.96312</v>
+        <v>210272.02664</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>336878.69776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>370206.32078</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>332100.164</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>73728.59844000002</v>
+        <v>76358.52598999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>336579.30842</v>
+        <v>336319.05443</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>113876.02726</v>
+        <v>120074.74212</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>158504.41127</v>
+        <v>165059.51933</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>173854.59363</v>
+        <v>176825.46774</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>217127.62258</v>
+        <v>224763.81942</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>242022.29381</v>
+        <v>256149.05776</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>218396.63598</v>
+        <v>283337.91962</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>257856.31927</v>
+        <v>279922.03656</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>414000.88933</v>
+        <v>413994.02049</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>709473.4642899999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>478742.24676</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>544745.419</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>36210.04859999999</v>
+        <v>35467.15623000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>41014.28104</v>
+        <v>39779.25018</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>53767.37245</v>
+        <v>53040.80422999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>60322.23962</v>
+        <v>61474.24231</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>62409.95140999999</v>
+        <v>62679.26122</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>78656.07145999999</v>
+        <v>84674.41454</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>95014.83566</v>
+        <v>100335.25222</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>137416.58588</v>
+        <v>154840.91656</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>154519.74397</v>
+        <v>164699.47886</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>246555.28008</v>
+        <v>246603.84027</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>536024.34501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>297888.59902</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>283688.597</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>31254.50138</v>
+        <v>34665.17838</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>290243.81961</v>
+        <v>290830.53804</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>54333.94441</v>
+        <v>58879.86864</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>91711.17118999999</v>
+        <v>94423.00885999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>100237.1887</v>
+        <v>102783.467</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>129154.84889</v>
+        <v>130162.13079</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>136557.15586</v>
+        <v>144586.7721</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>72355.10092</v>
+        <v>116958.35704</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>93992.56395</v>
+        <v>100978.7273</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>125854.34254</v>
+        <v>125019.76684</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>139740.62742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>144469.57485</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>227334.961</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>6264.048459999999</v>
+        <v>6226.19138</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5321.20777</v>
+        <v>5709.26621</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>5774.7104</v>
+        <v>8154.06925</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6471.00046</v>
+        <v>9162.26816</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>11207.45352</v>
+        <v>11362.73952</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>9316.702230000001</v>
+        <v>9927.274090000003</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10450.30229</v>
+        <v>11227.03344</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8624.949180000001</v>
+        <v>11538.64602</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>9344.011349999999</v>
+        <v>14243.8304</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>41591.26671</v>
+        <v>42370.41338</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>33708.49186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36384.07289</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>33721.861</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3221665.24935</v>
+        <v>3371040.13023</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3938175.56308</v>
+        <v>3996949.395500001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4841501.487439999</v>
+        <v>4989133.067519999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5277791.39222</v>
+        <v>5512112.16746</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6856348.125339999</v>
+        <v>7104680.925929999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7107206.191430001</v>
+        <v>7399064.520149999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7736151.61508</v>
+        <v>8232560.64321</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8320239.22083</v>
+        <v>8917261.497049998</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10418523.94508</v>
+        <v>11033926.18467</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>16014874.67372</v>
+        <v>16525591.8794</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16796954.55576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17414863.93101</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>21262831.436</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2703262.51502</v>
+        <v>2824762.65332</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3350432.91199</v>
+        <v>3412002.04027</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4041972.8265</v>
+        <v>4180984.44536</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4471108.07756</v>
+        <v>4673522.49713</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5738918.99331</v>
+        <v>5944632.570470001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5936710.113419999</v>
+        <v>6161886.629139999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6404289.653359999</v>
+        <v>6781597.446330001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6948119.712190001</v>
+        <v>7430206.957380001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8776037.005419999</v>
+        <v>9244320.84014</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>12958595.62145</v>
+        <v>13342814.96623</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13837103.05067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14214553.9506</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>17390856.857</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2315027.17144</v>
+        <v>2407005.45632</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2923004.62971</v>
+        <v>2968251.29761</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3391473.51708</v>
+        <v>3492715.00627</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3689398.83324</v>
+        <v>3860893.66746</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4780608.454399999</v>
+        <v>4958276.894470001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5086247.49394</v>
+        <v>5325169.97872</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5371729.95324</v>
+        <v>5634945.56681</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5682719.82179</v>
+        <v>6093354.317079999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7001059.622799999</v>
+        <v>7374454.954450001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>10886518.38073</v>
+        <v>11264713.77218</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11232560.82976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11711089.48078</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>14806899.92</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>293813.44498</v>
+        <v>315720.98188</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>342619.3198399999</v>
+        <v>338321.70409</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>525186.49479</v>
+        <v>519141.38353</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>664238.7079299999</v>
+        <v>667730.72213</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>835213.0353400001</v>
+        <v>852938.75655</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>701420.11651</v>
+        <v>699292.40697</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>799535.0678099999</v>
+        <v>890956.4812700001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1003510.22242</v>
+        <v>1040429.68198</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1372101.42178</v>
+        <v>1410297.28027</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1672751.58398</v>
+        <v>1675181.39671</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1956791.58279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1851503.7105</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2169442.692</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>89295.32682</v>
+        <v>95674.44394000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>78477.53834</v>
+        <v>98908.40298999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>116719.15804</v>
+        <v>160384.58552</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>84232.70636000001</v>
+        <v>112162.42288</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>103678.81905</v>
+        <v>113879.95672</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>127029.32241</v>
+        <v>113893.58172</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>204342.83258</v>
+        <v>227488.38414</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>217111.58305</v>
+        <v>250907.37418</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>375418.5725000001</v>
+        <v>432712.69831</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>331153.0235499999</v>
+        <v>327850.6351599999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>475347.3478800001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>464842.33023</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>345164.127</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5126.57178</v>
+        <v>6361.77118</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6331.4241</v>
+        <v>6520.63558</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8593.656590000001</v>
+        <v>8743.470039999998</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>33237.83003</v>
+        <v>32735.68466</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>19418.68452</v>
+        <v>19536.96273</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>22013.18056</v>
+        <v>23530.66173</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>28681.79973</v>
+        <v>28207.01411</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>44778.08493</v>
+        <v>45515.58414</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>27457.38834</v>
+        <v>26855.90710999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>68172.63318999999</v>
+        <v>75069.16218</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>172403.29024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>187118.42909</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>69350.118</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>518402.73433</v>
+        <v>546277.47691</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>587742.6510900001</v>
+        <v>584947.35523</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>799528.6609399999</v>
+        <v>808148.6221599999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>806683.3146599999</v>
+        <v>838589.6703300001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1117429.13203</v>
+        <v>1160048.35546</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1170496.07801</v>
+        <v>1237177.89101</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1331861.96172</v>
+        <v>1450963.19688</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1372119.50864</v>
+        <v>1487054.53967</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1642486.93966</v>
+        <v>1789605.34453</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3056279.05227</v>
+        <v>3182776.91317</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2959851.50509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3200309.98041</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3871974.579</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>326667.04609</v>
+        <v>342234.74269</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>370840.56338</v>
+        <v>380675.1773400001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>453543.31799</v>
+        <v>467395.51305</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>510038.42051</v>
+        <v>544334.0740199999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>647723.7432099999</v>
+        <v>690734.89305</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>703531.7503499999</v>
+        <v>746062.98914</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>784441.9914500001</v>
+        <v>830504.9810999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>845931.55878</v>
+        <v>929918.57514</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>943026.2613899999</v>
+        <v>1025475.45334</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1389751.46668</v>
+        <v>1421708.12135</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1522541.91791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1580476.34465</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1676582.552</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>9288.983850000001</v>
+        <v>9708.475329999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>11664.81836</v>
+        <v>11613.45443</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>14893.6632</v>
+        <v>15105.10934</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>18022.43</v>
+        <v>19796.48654</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>21132.73461</v>
+        <v>21100.0537</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>23102.48287</v>
+        <v>24061.04269</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>29448.29725</v>
+        <v>31195.32119</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>30472.72915</v>
+        <v>37599.91439</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>32658.45658</v>
+        <v>39391.46953</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>51583.42119</v>
+        <v>54829.37314</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>62843.14222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>73162.22118000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>86559.675</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>117144.15848</v>
+        <v>122805.80201</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>135044.3178</v>
+        <v>137614.24475</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>161212.29018</v>
+        <v>162341.82161</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>182959.91499</v>
+        <v>186720.96108</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>247685.41746</v>
+        <v>262181.75434</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>259087.84172</v>
+        <v>274486.57455</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>276031.00429</v>
+        <v>297646.12951</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>285442.72899</v>
+        <v>314755.8312</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>332642.00624</v>
+        <v>365945.19207</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>537575.76647</v>
+        <v>582867.9352999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>545870.3022099999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>587106.66121</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>595036.784</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>200233.90376</v>
+        <v>209720.46535</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>224131.42722</v>
+        <v>231447.47816</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>277437.36461</v>
+        <v>289948.5821</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>309056.07552</v>
+        <v>337816.6264</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>378905.59114</v>
+        <v>407453.08501</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>421341.42576</v>
+        <v>447515.3719</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>478962.68991</v>
+        <v>501663.5304</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>530016.10064</v>
+        <v>577562.8295499999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>577725.79857</v>
+        <v>620138.79174</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>800592.27902</v>
+        <v>784010.81291</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>913828.4734800002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>920207.4622599999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>994986.093</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>191735.68824</v>
+        <v>204042.73422</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>216902.08771</v>
+        <v>204272.17789</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>345985.34295</v>
+        <v>340753.10911</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>296644.89415</v>
+        <v>294255.59631</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>469705.3888200001</v>
+        <v>469313.4624100001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>466964.32766</v>
+        <v>491114.90187</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>547419.97027</v>
+        <v>620458.21578</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>526187.9498600001</v>
+        <v>557135.96453</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>699460.6782700001</v>
+        <v>764129.8911900001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1666527.58559</v>
+        <v>1761068.79182</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1437309.58718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1619833.63576</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2195392.027</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>99443.61143</v>
+        <v>136969.16528</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>91187.06011000001</v>
+        <v>99277.42269999998</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>121581.71701</v>
+        <v>128498.67718</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>90287.33061</v>
+        <v>103273.43433</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>177587.25154</v>
+        <v>200933.75144</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>158456.41503</v>
+        <v>190836.94935</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>307703.9103400001</v>
+        <v>410295.4828599999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>289768.8848599999</v>
+        <v>350532.65979</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>309370.4725</v>
+        <v>357534.39514</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1545187.28953</v>
+        <v>1754365.59787</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>897270.3438799998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1027416.5352</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1478113.839</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>636.2455</v>
+        <v>722.93225</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>657.2624599999999</v>
+        <v>710.49373</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2442.93726</v>
+        <v>2524.27111</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>383.32109</v>
+        <v>283.50784</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>627.57408</v>
+        <v>737.0419600000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>183.90873</v>
+        <v>467.4612</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>275.82404</v>
+        <v>397.82786</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>17884.64071</v>
+        <v>134.22606</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>554.2468400000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>15766.37264</v>
+        <v>15739.83821</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>11808.45629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>11759.69168</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>689.127</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>21.84271</v>
@@ -1820,7 +1836,7 @@
         <v>152.5508</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>743.22104</v>
+        <v>726.4210400000001</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>1351.15863</v>
@@ -1829,76 +1845,86 @@
         <v>980.5432099999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>490</v>
+        <v>2143.61374</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>1533.48112</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>6755.89611</v>
+        <v>21687.12139</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>263.42204</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>188.586</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>11556.95827</v>
+        <v>10079.16653</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9129.222970000001</v>
+        <v>7629.81272</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>10920.39013</v>
+        <v>12109.96468</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8825.308580000001</v>
+        <v>12997.02992</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11824.4918</v>
+        <v>14398.05667</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>12134.31053</v>
+        <v>18026.36103</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>19970.21662</v>
+        <v>23551.11638</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>20048.84662</v>
+        <v>27592.54392</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>28605.25158</v>
+        <v>32477.79840000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>58714.05243</v>
+        <v>68053.75722</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>81153.97035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>85348.30546999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>65045.458</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1552.72346</v>
+        <v>1547.60544</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>555.50821</v>
+        <v>415.84915</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>712.3124700000001</v>
+        <v>711.54519</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>1042.35417</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1119.05434</v>
+        <v>1145.05434</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>744.5863400000001</v>
@@ -1907,184 +1933,209 @@
         <v>28.51601</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1105.61202</v>
+        <v>991.16747</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>334.73411</v>
+        <v>1215.14143</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>491.1106</v>
+        <v>484.91442</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2025.1054</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>63107.72584000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>808.442</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1508.40937</v>
+        <v>28355.46754</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1154.28366</v>
+        <v>1242.91247</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3173.64763</v>
+        <v>3064.38832</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2526.25431</v>
+        <v>3074.3364</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>12273.90244</v>
+        <v>5142.420190000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3021.97015</v>
+        <v>2934.55146</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>12203.14022</v>
+        <v>5522.0843</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>12216.26442</v>
+        <v>3305.7356</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>12735.78856</v>
+        <v>6364.579919999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>17365.05138</v>
+        <v>10929.15004</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>16295.95542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>9145.06151</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>43222.246</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1455.85122</v>
+        <v>1442.91306</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1020.88128</v>
+        <v>1543.52862</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1040.501</v>
+        <v>1041.63086</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>9214.616719999998</v>
+        <v>511.36939</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1712.63857</v>
+        <v>1834.40434</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1321.10312</v>
+        <v>1481.58926</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2332.81418</v>
+        <v>2527.82416</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1367.09162</v>
+        <v>1086.35165</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>6088.13728</v>
+        <v>6379.106740000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3238.05865</v>
+        <v>3238.01987</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3559.97822</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3574.62077</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>8542.374</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>66677.00625000001</v>
+        <v>77213.33806000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>61302.35771</v>
+        <v>68998.04528999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>85481.37792999999</v>
+        <v>90477.58881</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>55055.85149</v>
+        <v>73419.19971000002</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>125422.438</v>
+        <v>151510.88594</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>110210.9123</v>
+        <v>130514.14606</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>242776.7662</v>
+        <v>348524.3889</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>199837.55415</v>
+        <v>275990.79932</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>225651.90228</v>
+        <v>273846.75063</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1335225.66892</v>
+        <v>1530432.69709</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>688433.2534800001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>752038.6171500001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1267094.378</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>90.89653</v>
+        <v>382.2394</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>332.15214</v>
+        <v>155.43414</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1290.58036</v>
+        <v>1200.5668</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>396.4102</v>
+        <v>623.8107199999999</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>972.94327</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2398.39032</v>
+        <v>2401.0904</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3531.28565</v>
+        <v>3518.98975</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2322.58406</v>
+        <v>3772.80536</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2103.13263</v>
+        <v>2622.6841</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>10485.74496</v>
+        <v>11146.64617</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>18665.40536</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>20139.23525</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>10521.154</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>18.19292</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>2.83278</v>
+        <v>2.35042</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>1691.95904</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>337.083</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>15925.4852</v>
+        <v>17185.46737</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>17032.5589</v>
+        <v>18578.99616</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>16427.63983</v>
+        <v>17276.39101</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>12608.1085</v>
+        <v>11086.72063</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>22890.988</v>
+        <v>24466.52369</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>26967.62348000001</v>
+        <v>32793.55354</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>25531.68702</v>
+        <v>25171.0751</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>34389.50306</v>
+        <v>35408.62847</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>31578.93852</v>
+        <v>32355.74638</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>97123.87544</v>
+        <v>92631.99506</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>73372.83828</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>80347.89645</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>81664.99099999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>83563.76620999999</v>
+        <v>96272.16926</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>74217.15019</v>
+        <v>82060.84412000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>121236.74057</v>
+        <v>126407.52947</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>80219.49001000001</v>
+        <v>100612.22726</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>202024.65721</v>
+        <v>227397.08028</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>164327.0404</v>
+        <v>212557.90882</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>324321.65393</v>
+        <v>465533.94191</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>277675.749</v>
+        <v>343140.89066</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>285033.77584</v>
+        <v>336747.9610900001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1740828.46723</v>
+        <v>1856996.14356</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>845729.4253400001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1009965.77136</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1330187.208</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2175.278800000001</v>
+        <v>2480.87672</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1843.53823</v>
+        <v>1943.88192</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3377.517219999999</v>
+        <v>3675.91478</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4274.11602</v>
+        <v>4599.42569</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3478.7344</v>
+        <v>4061.12688</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3404.80731</v>
+        <v>4398.08207</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4043.85067</v>
+        <v>3894.14131</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5230.96784</v>
+        <v>5106.532099999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4005.76166</v>
+        <v>4597.406180000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4087.57938</v>
+        <v>4062.57938</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>19952.26931</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>19984.42205</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6007.28</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>9144.54639</v>
+        <v>9892.275629999998</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>7003.529119999999</v>
+        <v>7493.87128</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>6741.26479</v>
+        <v>7633.61574</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>15123.60173</v>
+        <v>21764.71617</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>13182.72866</v>
+        <v>21999.05457</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>16288.12858</v>
+        <v>31534.103</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>24856.00703</v>
+        <v>25553.81524</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>23634.67524</v>
+        <v>23227.90636</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>18115.00499</v>
+        <v>22670.78235</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>67500.69662</v>
+        <v>70621.36983000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>55706.97267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>55195.82307999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>92017.944</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>239.33493</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>56.45807</v>
+        <v>59.07508</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>1587.95986</v>
@@ -2288,16 +2364,16 @@
         <v>770.72441</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>115.51437</v>
+        <v>155.93852</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0</v>
+        <v>0.31604</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>20.24731</v>
+        <v>73.49491999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>591.6334700000001</v>
+        <v>60.89435</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1248.43414</v>
@@ -2308,89 +2384,104 @@
       <c r="M39" s="48" t="n">
         <v>585.40147</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7629.784</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>65355.92141000001</v>
+        <v>75106.35678999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>59627.18683999999</v>
+        <v>66912.90174</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>102093.49772</v>
+        <v>104797.20065</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>53716.48562</v>
+        <v>68013.14699000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>170130.43761</v>
+        <v>186154.13086</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>132695.21497</v>
+        <v>163711.90957</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>276503.06621</v>
+        <v>413155.02925</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>233881.93047</v>
+        <v>296515.6883</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>249400.67362</v>
+        <v>293605.0046</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1595348.87886</v>
+        <v>1703931.9187</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>715166.10398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>839407.0466400001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1168210.534</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>41.41499</v>
+        <v>447.42371</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>239.53645</v>
+        <v>61.65945</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>207.85984</v>
+        <v>130.94827</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>271.18126</v>
+        <v>280.35112</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>2034.65057</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2918.11017</v>
+        <v>2970.68193</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>3711.51137</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2332.18681</v>
+        <v>3841.66115</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2712.18735</v>
+        <v>3281.2507</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>10068.77608</v>
+        <v>11514.88137</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>21394.08431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>22440.83351</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>15206.893</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.95321</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.00025</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6606.31648</v>
+        <v>8104.948270000002</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5414.23234</v>
+        <v>5556.78551</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>7226.44814</v>
+        <v>8579.697169999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6063.380970000001</v>
+        <v>5183.86288</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>13082.5916</v>
+        <v>12992.17888</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9020.779369999998</v>
+        <v>9942.816210000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>15186.97134</v>
+        <v>19145.94982</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12004.35517</v>
+        <v>14388.2084</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>9543.061370000001</v>
+        <v>11336.43041</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>62198.42722999999</v>
+        <v>65241.28522</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>32924.59335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>72352.24436</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>41114.773</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>78531.6863</v>
+        <v>89706.13325999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>66017.21665999999</v>
+        <v>69897.23935</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>92630.59553000002</v>
+        <v>96324.90949999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>112738.08018</v>
+        <v>116709.86141</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>137475.38305</v>
+        <v>152866.48853</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>165707.72195</v>
+        <v>192248.96607</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>196930.70351</v>
+        <v>216236.46062</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>200894.37704</v>
+        <v>261504.65499</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>244387.09931</v>
+        <v>329206.09887</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>578440.79453</v>
+        <v>549642.4505799999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>549093.1702000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>541630.0754399999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>468451.545</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>73399.25237999999</v>
+        <v>84910.14589</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>61795.62682</v>
+        <v>65881.83140000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>86662.25648</v>
+        <v>90636.52265</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>106234.66839</v>
+        <v>110109.47363</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>130749.9618</v>
+        <v>145883.76188</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>158635.01652</v>
+        <v>182687.64804</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>187429.25037</v>
+        <v>206863.48116</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>187347.473</v>
+        <v>224375.53969</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>231391.32664</v>
+        <v>274359.12794</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>521557.55005</v>
+        <v>494306.97386</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>507912.69735</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>501219.16077</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>431343.505</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5132.433919999999</v>
+        <v>4795.987369999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>4221.58984</v>
+        <v>4015.40795</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>5968.33905</v>
+        <v>5688.38685</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>6503.411790000001</v>
+        <v>6600.387779999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>6725.42125</v>
+        <v>6982.726650000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7072.70543</v>
+        <v>9561.318029999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>9501.45314</v>
+        <v>9372.979459999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>13546.90404</v>
+        <v>37129.1153</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12995.77267</v>
+        <v>54846.97093</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>56883.24447999999</v>
+        <v>55335.47672</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>41180.47285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>40410.91467</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>37108.04</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>129083.84716</v>
+        <v>155033.59698</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>167854.78097</v>
+        <v>151591.51712</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>253699.72386</v>
+        <v>246519.34732</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>193974.65457</v>
+        <v>180206.94197</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>307792.6001</v>
+        <v>289983.64504</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>295385.98034</v>
+        <v>277144.97633</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>333871.5231699999</v>
+        <v>348983.29611</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>337386.7086799999</v>
+        <v>303023.07867</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>479410.27562</v>
+        <v>455710.22637</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>892445.61336</v>
+        <v>1108795.79555</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>939757.3355199998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1095654.32416</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1874867.113</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>17789.82555</v>
+        <v>29510.84599</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>22420.69147</v>
+        <v>22414.25164</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>22711.08977</v>
+        <v>20555.03135</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>28451.45757</v>
+        <v>28139.18912</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>92706.84569</v>
+        <v>73583.07986</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>49472.54478</v>
+        <v>59765.64934</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>89345.75506</v>
+        <v>135491.46796</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>75942.12443000001</v>
+        <v>101993.73508</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>103972.31615</v>
+        <v>98995.59564999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>124567.21312</v>
+        <v>114472.20978</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>142531.5876</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>124800.48336</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>158882.075</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1140.98067</v>
+        <v>1093.99827</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>253.56398</v>
+        <v>287.02551</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>231.5904</v>
+        <v>589.1559199999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>315.09828</v>
+        <v>304.12956</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1018.61511</v>
+        <v>1097.55456</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>646.8118999999999</v>
+        <v>626.1574400000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2653.92641</v>
+        <v>2695.70562</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>424.97378</v>
+        <v>1147.30646</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>342.89459</v>
+        <v>335.69076</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1610.78998</v>
+        <v>1097.31397</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2339.12327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1929.13268</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1642.53</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>16648.84488</v>
+        <v>28416.84772</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>22167.12749</v>
+        <v>22127.22613</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>22479.49937</v>
+        <v>19965.87543</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>28136.35929</v>
+        <v>27835.05955999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>91688.23058</v>
+        <v>72485.52529999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>48825.73288</v>
+        <v>59139.4919</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>86691.82865</v>
+        <v>132795.76234</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>75517.15065000001</v>
+        <v>100846.42862</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>103629.42156</v>
+        <v>98659.90489000002</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>122956.42314</v>
+        <v>113374.89581</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>140192.46433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>122871.35068</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>157239.545</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>37166.93439</v>
+        <v>37248.71397</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>22690.64057</v>
+        <v>22918.50041</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>135405.27445</v>
+        <v>160142.36149</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>33975.25476</v>
+        <v>39510.51543000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>57950.66935999999</v>
+        <v>59016.49200999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>95430.10505</v>
+        <v>114629.60308</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>80455.69518</v>
+        <v>84396.39143</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>143041.0872</v>
+        <v>157502.37416</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>51877.12173</v>
+        <v>44597.84021</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>156994.06778</v>
+        <v>142786.9959</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>147041.92546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>162991.18785</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>110379.527</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2794.26347</v>
+        <v>5963.63241</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>4424.72705</v>
+        <v>4499.43214</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2875.61807</v>
+        <v>3673.91457</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2683.765190000001</v>
+        <v>8387.285600000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>7490.43374</v>
+        <v>5266.736370000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>10441.98404</v>
+        <v>9785.670559999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>10041.26013</v>
+        <v>7572.011039999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6707.50766</v>
+        <v>4881.46661</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5447.774149999999</v>
+        <v>879.09193</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5504.10313</v>
+        <v>9238.250739999999</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>2833.200229999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>15896.243</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>10718.23284</v>
+        <v>7684.019429999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1555.31553</v>
+        <v>3014.39151</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1321.9197</v>
+        <v>6895.11589</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1982.11315</v>
+        <v>6351.77252</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2230.80528</v>
+        <v>4784.94002</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3796.61139</v>
+        <v>7484.0323</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5840.9707</v>
+        <v>6663.03041</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2193.95741</v>
+        <v>3214.54492</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>10702.26889</v>
+        <v>2866.51939</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2389.92097</v>
+        <v>2004.96624</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3334.41051</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3204.882250000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5836.824</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>23654.43808</v>
+        <v>23601.06213</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>16710.59799</v>
+        <v>15404.67676</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>131207.73668</v>
+        <v>149573.33103</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>29309.37642</v>
+        <v>24771.45731</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>48229.43034000001</v>
+        <v>48964.81561999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>81191.50962000001</v>
+        <v>97359.90022</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>64573.46434999999</v>
+        <v>70161.34997999998</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>134139.62213</v>
+        <v>149406.36263</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>35727.07868999999</v>
+        <v>40852.22889</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>149100.04368</v>
+        <v>131543.77892</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>140874.31472</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>156953.10537</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>88646.46000000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>109706.73832</v>
+        <v>147295.729</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>167584.83187</v>
+        <v>151087.26835</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>141005.53918</v>
+        <v>106932.01718</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>188450.85738</v>
+        <v>168835.61566</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>342548.77643</v>
+        <v>304550.23289</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>249428.42007</v>
+        <v>222281.02259</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>342761.5830500001</v>
+        <v>400078.37264</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>270287.74591</v>
+        <v>247514.43959</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>531505.4700399999</v>
+        <v>510107.98181</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>860018.7587</v>
+        <v>1080481.00943</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>935246.9976600001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1057463.61967</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1923369.661</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>35278.19996</v>
+        <v>35018.26224</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>33778.1775</v>
+        <v>33293.33331</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>48497.45152</v>
+        <v>49457.28656999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>43516.87518</v>
+        <v>46628.13077999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>64366.67333999999</v>
+        <v>65377.07322</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>64798.47792</v>
+        <v>68555.15873000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>75215.37450999999</v>
+        <v>78680.2668</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>70385.07379000001</v>
+        <v>77634.74811</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>88675.85579</v>
+        <v>92575.32369</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>163100.96549</v>
+        <v>170218.21371</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>182241.5864</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>183493.83534</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>303937.285</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>74428.53836000001</v>
+        <v>112277.46676</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>133806.65437</v>
+        <v>117793.93504</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>92508.08765999999</v>
+        <v>57474.73060999998</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>144933.9822</v>
+        <v>122207.48488</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>278182.10309</v>
+        <v>239173.15967</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>184629.94215</v>
+        <v>153725.86386</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>267546.20854</v>
+        <v>321398.10584</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>199902.67212</v>
+        <v>169879.69148</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>442829.61425</v>
+        <v>417532.65812</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>696917.79321</v>
+        <v>910262.7957200001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>753005.41126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>873969.7843300001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1619432.376</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="H59" s="35" t="n">
+        <v>399</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>440</v>
       </c>
-      <c r="I59" s="35" t="n">
-        <v>489</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>519</v>
+        <v>454</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>382</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>